--- a/CS_StudyPlanHelper_Template.xlsx
+++ b/CS_StudyPlanHelper_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D839498C-E0C8-416D-B0B6-9C344D8495DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452BF21-D381-4CD5-B861-6D401F6958D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD86B5C4-A838-4D05-A951-1658F08F23BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,9 +70,6 @@
     <t>OTHER EXAMS</t>
   </si>
   <si>
-    <t>MARK</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AVG</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     </r>
   </si>
   <si>
-    <t>MARKS</t>
-  </si>
-  <si>
     <t xml:space="preserve">               DO NOT CHANGE ANYTHING HERE</t>
   </si>
   <si>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>NOTE: The tables have enough rows for 5 CFUs exams. If you follow a 10 CFU course, just leave a blank row.</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>GRADES</t>
   </si>
 </sst>
 </file>
@@ -915,83 +915,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF62D862"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31C531"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF62D862"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31C531"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1357,7 +1281,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1313,7 @@
     <row r="4" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="6"/>
       <c r="C4" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1416,7 +1340,7 @@
       <c r="A6" s="41"/>
       <c r="B6" s="6"/>
       <c r="C6" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1431,7 +1355,7 @@
       <c r="A7" s="41"/>
       <c r="B7" s="6"/>
       <c r="C7" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1445,7 +1369,7 @@
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1498,23 +1422,23 @@
       <c r="A12" s="41"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="41"/>
@@ -1523,7 +1447,7 @@
       <c r="A13" s="41"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -1561,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="41"/>
@@ -1574,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1635,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -1643,13 +1567,13 @@
       <c r="A20" s="41"/>
       <c r="B20" s="6"/>
       <c r="C20" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="16"/>
@@ -1661,7 +1585,7 @@
       <c r="A21" s="41"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
@@ -1678,7 +1602,7 @@
       <c r="A22" s="41"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
@@ -1695,7 +1619,7 @@
       <c r="A23" s="41"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7">
         <v>5</v>
@@ -1712,7 +1636,7 @@
       <c r="A24" s="41"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>5</v>
@@ -1729,7 +1653,7 @@
       <c r="A25" s="41"/>
       <c r="B25" s="6"/>
       <c r="C25" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
         <v>5</v>
@@ -1741,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="41"/>
@@ -1750,7 +1674,7 @@
       <c r="A26" s="41"/>
       <c r="B26" s="6"/>
       <c r="C26" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
@@ -1816,17 +1740,17 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="41"/>
@@ -1845,7 +1769,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -1866,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="41"/>
@@ -1894,13 +1818,13 @@
       <c r="A34" s="41"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1930,7 +1854,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="6"/>
       <c r="G36" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="36">
         <f>SUMIFS(D13:D15,E13:E15,"&gt;0")+SUMIFS(D21:D29,E21:E29,"&gt;0")+SUMIFS(D35:D36,E35:E36,"&gt;0")+SUMIFS(H13:H14,I13:I14,"&gt;0")+SUMIFS(H20:H24,I20:I24,"&gt;0")+SUMIFS(H31,I31,"&gt;0") + SUMIFS(D13:D15,E13:E15,"=30L")+SUMIFS(D21:D29,E21:E29,"=30L")+SUMIFS(D35:D36,E35:E36,"=30L")+SUMIFS(H13:H14,I13:I14,"=30L")+SUMIFS(H20:H24,I20:I24,"=30L")+SUMIFS(H31,I31,"=30L")</f>
@@ -1948,11 +1872,11 @@
         <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="43" cm="1">
         <f t="array" ref="H37">IF(SUM(IF(E13:E15="30L",30,E13:E15),IF(E21:E29="30L",30,E21:E29),IF(E35:E36="30L",30,E35:E36),IF(I13:I14="30L",30,I13:I14),IF(I20:I24="30L",30,I20:I24),IF(I33="30L",30,I33)) &gt;0,( (SUMPRODUCT(D13:D15,IF(E13:E15="30L",30,E13:E15)) + SUMPRODUCT(D21:D29,IF(E21:E29="30L",30,E21:E29)) + SUMPRODUCT(D35:D36,IF(E35:E36="30L",30,E35:E36)) + SUMPRODUCT(H13:H14,IF(I13:I14="30L",30,I13:I14)) + SUMPRODUCT(H20:H24,IF(I20:I24="30L",30,I20:I24)) + SUMPRODUCT(H33,I33))  / H36),0)</f>
@@ -2022,23 +1946,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
       <formula>28.001</formula>
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>26.001</formula>
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>24.001</formula>
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>20.001</formula>
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>0</formula>
       <formula>20</formula>
     </cfRule>
@@ -2071,7 +1995,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,7 +2006,7 @@
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="48"/>
       <c r="C2" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -2103,7 +2027,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="1"/>
       <c r="J3" s="46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -2122,7 +2046,7 @@
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2131,7 +2055,7 @@
       <c r="H5" s="47"/>
       <c r="I5" s="1"/>
       <c r="J5" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -2152,7 +2076,7 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2168,7 +2092,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2184,7 +2108,7 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2200,7 +2124,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2215,10 +2139,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2233,10 +2157,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2251,10 +2175,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2269,10 +2193,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2287,10 +2211,10 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2305,10 +2229,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2367,6 +2291,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A477320F3D81C74086B1F4B4B683B2EB" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8fd0ea1492d6320a7d8cc11e9d2c674c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a9c86c7-f25b-4f4c-bdfc-77ddd7459bd9" xmlns:ns4="3e013123-3de5-4114-91ba-74e7cbd18921" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cdb808c611e3aff9d50c1125a2188131" ns3:_="" ns4:_="">
     <xsd:import namespace="0a9c86c7-f25b-4f4c-bdfc-77ddd7459bd9"/>
@@ -2577,15 +2510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2593,6 +2517,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BF90A-C2F3-44A3-951A-377C189032C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A76529-4D3E-4C0E-948A-272B9EC522EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2607,14 +2539,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BF90A-C2F3-44A3-951A-377C189032C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CS_StudyPlanHelper_Template.xlsx
+++ b/CS_StudyPlanHelper_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Progetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4452BF21-D381-4CD5-B861-6D401F6958D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E59F2F-0921-4B7A-A036-F46242EDC9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD86B5C4-A838-4D05-A951-1658F08F23BD}"/>
   </bookViews>
@@ -811,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -897,7 +897,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -911,11 +910,373 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="#"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62D862"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31C531"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1281,7 +1642,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1813,7 @@
       <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="6"/>
       <c r="G13" s="16"/>
       <c r="H13" s="4"/>
@@ -1478,7 +1839,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
@@ -1507,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" cm="1">
-        <f t="array" ref="I16">(IF(SUM(IF(I13:I14="30L",30,I13:I14))&gt;0,(SUMPRODUCT(H13:H14,IF(I13:I14="30L",30,I13:I14)))/(SUMIFS(H13:H14,I13:I14,"&gt;=18") + SUMIFS(H13:H14,I13:I14,"=30L")),0))</f>
+        <f t="array" ref="I16">(IF(SUM(IF(I13:I14="30L",30,I13:I14))&gt;0,ROUND((SUMPRODUCT(H13:H14,IF(I13:I14="30L",30,I13:I14)))/(SUMIFS(H13:H14,I13:I14,"&gt;=18") + SUMIFS(H13:H14,I13:I14,"=30L")),2),0))</f>
         <v>0</v>
       </c>
       <c r="J16" s="6"/>
@@ -1521,8 +1882,8 @@
         <f>SUM(D13:D15)</f>
         <v>5</v>
       </c>
-      <c r="E17" s="6" cm="1">
-        <f t="array" ref="E17">(IF(SUM(IF(E13:E15="30L",30,E13:E15))&gt;0,(SUMPRODUCT(D13:D15,IF(E13:E15="30L",30,E13:E15)))/(SUMIFS(D13:D15,E13:E15,"&gt;=18") + SUMIFS(D13:D15,E13:E15,"=30L")),0))</f>
+      <c r="E17" s="50" cm="1">
+        <f t="array" ref="E17">(IF(SUM(IF(E13:E15="30L",30,E13:E15))&gt;0,ROUND((SUMPRODUCT(D13:D15,IF(E13:E15="30L",30,E13:E15)))/(SUMIFS(D13:D15,E13:E15,"&gt;=18") + SUMIFS(D13:D15,E13:E15,"=30L")),2),0))</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
@@ -1590,7 +1951,7 @@
       <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1652,7 +2013,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="7">
@@ -1687,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" cm="1">
-        <f t="array" ref="I26">(IF(SUM(IF(I20:I24="30L",30,I20:I24))&gt;0,(SUMPRODUCT(H20:H24,IF(I20:I24="30L",30,I20:I24)))/(SUMIFS(H20:H24,I20:I24,"&gt;=18") + SUMIFS(H20:H24,I20:I24,"=30L")),0))</f>
+        <f t="array" ref="I26">(IF(SUM(IF(I20:I24="30L",30,I20:I24))&gt;0,ROUND((SUMPRODUCT(H20:H24,IF(I20:I24="30L",30,I20:I24)))/(SUMIFS(H20:H24,I20:I24,"&gt;=18") + SUMIFS(H20:H24,I20:I24,"=30L")),2),0))</f>
         <v>0</v>
       </c>
       <c r="J26" s="6"/>
@@ -1764,7 +2125,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" cm="1">
-        <f t="array" ref="E31">(IF(SUM(IF(E21:E29="30L",30,E21:E29))&gt;0,(SUMPRODUCT(D21:D29,IF(E21:E29="30L",30,E21:E29)))/(SUMIFS(D21:D29,E21:E29,"&gt;=18") + SUMIFS(D21:D29,E21:E29,"=30L")),0))</f>
+        <f t="array" ref="E31">(IF(SUM(IF(E21:E29="30L",30,E21:E29))&gt;0,ROUND((SUMPRODUCT(D21:D29,IF(E21:E29="30L",30,E21:E29)))/(SUMIFS(D21:D29,E21:E29,"&gt;=18") + SUMIFS(D21:D29,E21:E29,"=30L")),2),0))</f>
         <v>0</v>
       </c>
       <c r="F31" s="6"/>
@@ -1838,7 +2199,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="16"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="44"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1851,7 +2212,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="6"/>
       <c r="G36" s="34" t="s">
         <v>31</v>
@@ -1878,8 +2239,8 @@
       <c r="G37" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="43" cm="1">
-        <f t="array" ref="H37">IF(SUM(IF(E13:E15="30L",30,E13:E15),IF(E21:E29="30L",30,E21:E29),IF(E35:E36="30L",30,E35:E36),IF(I13:I14="30L",30,I13:I14),IF(I20:I24="30L",30,I20:I24),IF(I33="30L",30,I33)) &gt;0,( (SUMPRODUCT(D13:D15,IF(E13:E15="30L",30,E13:E15)) + SUMPRODUCT(D21:D29,IF(E21:E29="30L",30,E21:E29)) + SUMPRODUCT(D35:D36,IF(E35:E36="30L",30,E35:E36)) + SUMPRODUCT(H13:H14,IF(I13:I14="30L",30,I13:I14)) + SUMPRODUCT(H20:H24,IF(I20:I24="30L",30,I20:I24)) + SUMPRODUCT(H33,I33))  / H36),0)</f>
+      <c r="H37" s="51" cm="1">
+        <f t="array" ref="H37">IF(SUM(IF(E13:E15="30L",30,E13:E15),IF(E21:E29="30L",30,E21:E29),IF(E35:E36="30L",30,E35:E36),IF(I13:I14="30L",30,I13:I14),IF(I20:I24="30L",30,I20:I24),IF(I33="30L",30,I33)) &gt;0,ROUND(((SUMPRODUCT(D13:D15,IF(E13:E15="30L",30,E13:E15)) + SUMPRODUCT(D21:D29,IF(E21:E29="30L",30,E21:E29)) + SUMPRODUCT(D35:D36,IF(E35:E36="30L",30,E35:E36)) + SUMPRODUCT(H13:H14,IF(I13:I14="30L",30,I13:I14)) + SUMPRODUCT(H20:H24,IF(I20:I24="30L",30,I20:I24)) + SUMPRODUCT(H33,I33)) /H36),2),0)</f>
         <v>0</v>
       </c>
       <c r="I37" s="6"/>
@@ -1895,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="6" cm="1">
-        <f t="array" ref="E38">(IF(SUM(IF(E35:E36="30L",30,E35:E36))&gt;0,(SUMPRODUCT(D35:D36,IF(E35:E36="30L",30,E35:E36)))/(SUMIFS(D35:D36,E35:E36,"&gt;=18") + SUMIFS(D35:D36,E35:E36,"=30L")),0))</f>
+        <f t="array" ref="E38">(IF(SUM(IF(E35:E36="30L",30,E35:E36))&gt;0,ROUND((SUMPRODUCT(D35:D36,IF(E35:E36="30L",30,E35:E36)))/(SUMIFS(D35:D36,E35:E36,"&gt;=18") + SUMIFS(D35:D36,E35:E36,"=30L")),2),0))</f>
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
@@ -1946,23 +2307,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
       <formula>28.001</formula>
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
       <formula>26.001</formula>
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
       <formula>24.001</formula>
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>20.001</formula>
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>0</formula>
       <formula>20</formula>
     </cfRule>
@@ -2004,18 +2365,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -2024,9 +2385,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="45" t="s">
         <v>39</v>
       </c>
       <c r="K3" s="1"/>
@@ -2038,7 +2399,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2052,7 +2413,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="1"/>
       <c r="J5" s="26" t="s">
         <v>21</v>
@@ -2066,7 +2427,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="1"/>
       <c r="J6" s="26">
         <v>30</v>
@@ -2082,7 +2443,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="1"/>
       <c r="J7" s="26">
         <v>29</v>
@@ -2098,7 +2459,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26">
         <v>28</v>
@@ -2114,7 +2475,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="1"/>
       <c r="J9" s="26">
         <v>27</v>
@@ -2130,7 +2491,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="1"/>
       <c r="J10" s="26">
         <v>26</v>
@@ -2148,7 +2509,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="1"/>
       <c r="J11" s="26">
         <v>25</v>
@@ -2166,7 +2527,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="1"/>
       <c r="J12" s="26">
         <v>24</v>
@@ -2184,7 +2545,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="1"/>
       <c r="J13" s="26">
         <v>23</v>
@@ -2202,7 +2563,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="47"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="1"/>
       <c r="J14" s="26">
         <v>22</v>
@@ -2220,7 +2581,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="47"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="1"/>
       <c r="J15" s="26">
         <v>21</v>
@@ -2238,7 +2599,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="47"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="1"/>
       <c r="J16" s="26">
         <v>20</v>
@@ -2252,7 +2613,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="1"/>
       <c r="J17" s="26">
         <v>19</v>
@@ -2266,7 +2627,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="1"/>
       <c r="J18" s="26">
         <v>18</v>
@@ -2280,7 +2641,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="47"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2291,15 +2652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A477320F3D81C74086B1F4B4B683B2EB" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8fd0ea1492d6320a7d8cc11e9d2c674c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a9c86c7-f25b-4f4c-bdfc-77ddd7459bd9" xmlns:ns4="3e013123-3de5-4114-91ba-74e7cbd18921" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cdb808c611e3aff9d50c1125a2188131" ns3:_="" ns4:_="">
     <xsd:import namespace="0a9c86c7-f25b-4f4c-bdfc-77ddd7459bd9"/>
@@ -2510,6 +2862,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2517,14 +2878,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BF90A-C2F3-44A3-951A-377C189032C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A76529-4D3E-4C0E-948A-272B9EC522EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2539,6 +2892,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BF90A-C2F3-44A3-951A-377C189032C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
